--- a/chart5_2/data/各區域歷年農業細分用水.xlsx
+++ b/chart5_2/data/各區域歷年農業細分用水.xlsx
@@ -10,13 +10,14 @@
     <sheet name="各區域歷年農業用水量千立方公尺" sheetId="2" r:id="rId1"/>
     <sheet name="各項農業用水百萬立方公尺" sheetId="3" r:id="rId2"/>
     <sheet name="畫圖" sheetId="4" r:id="rId3"/>
+    <sheet name="工作表1" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="37">
   <si>
     <t>區域/年度</t>
   </si>
@@ -120,6 +121,34 @@
   </si>
   <si>
     <t>畜牧用水(百萬立方公尺)</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>灌溉用水區域比較(百萬立方公尺)</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>養殖用水區域比較(百萬立方公尺)</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>畜牧用水區域比較(百萬立方公尺)</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>台灣農業用水用途比較(百萬立方公尺)</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>灌溉用水</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>養殖用水</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>畜牧用水</t>
     <phoneticPr fontId="24" type="noConversion"/>
   </si>
 </sst>
@@ -814,7 +843,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -860,8 +889,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="35" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="35" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2085,11 +2123,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="139676672"/>
-        <c:axId val="187747136"/>
+        <c:axId val="311566848"/>
+        <c:axId val="174548096"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="139676672"/>
+        <c:axId val="311566848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2108,7 +2146,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="187747136"/>
+        <c:crossAx val="174548096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2116,7 +2154,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="187747136"/>
+        <c:axId val="174548096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2137,7 +2175,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="139676672"/>
+        <c:crossAx val="311566848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2208,7 +2246,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>北部 灌溉用水(百萬立方公尺)</c:v>
+                  <c:v>北部 灌溉用水區域比較(百萬立方公尺)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2290,7 +2328,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>中部 灌溉用水(百萬立方公尺)</c:v>
+                  <c:v>中部 灌溉用水區域比較(百萬立方公尺)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2372,7 +2410,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>南部 灌溉用水(百萬立方公尺)</c:v>
+                  <c:v>南部 灌溉用水區域比較(百萬立方公尺)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2454,7 +2492,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>東部 灌溉用水(百萬立方公尺)</c:v>
+                  <c:v>東部 灌溉用水區域比較(百萬立方公尺)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2536,11 +2574,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="183955968"/>
-        <c:axId val="334374592"/>
+        <c:axId val="287441920"/>
+        <c:axId val="174552128"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="183955968"/>
+        <c:axId val="287441920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2549,7 +2587,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="334374592"/>
+        <c:crossAx val="174552128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2557,7 +2595,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="334374592"/>
+        <c:axId val="174552128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2568,7 +2606,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="183955968"/>
+        <c:crossAx val="287441920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2620,7 +2658,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>北部 養殖用水(百萬立方公尺)</c:v>
+                  <c:v>北部 養殖用水區域比較(百萬立方公尺)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2702,7 +2740,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>中部 養殖用水(百萬立方公尺)</c:v>
+                  <c:v>中部 養殖用水區域比較(百萬立方公尺)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2784,7 +2822,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>南部 養殖用水(百萬立方公尺)</c:v>
+                  <c:v>南部 養殖用水區域比較(百萬立方公尺)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2866,7 +2904,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>東部 養殖用水(百萬立方公尺)</c:v>
+                  <c:v>東部 養殖用水區域比較(百萬立方公尺)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2948,11 +2986,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="46282240"/>
-        <c:axId val="334411968"/>
+        <c:axId val="265645056"/>
+        <c:axId val="174554432"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="46282240"/>
+        <c:axId val="265645056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2961,7 +2999,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="334411968"/>
+        <c:crossAx val="174554432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2969,7 +3007,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="334411968"/>
+        <c:axId val="174554432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2980,7 +3018,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="46282240"/>
+        <c:crossAx val="265645056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3032,7 +3070,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>北部 畜牧用水(百萬立方公尺)</c:v>
+                  <c:v>北部 畜牧用水區域比較(百萬立方公尺)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3114,7 +3152,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>中部 畜牧用水(百萬立方公尺)</c:v>
+                  <c:v>中部 畜牧用水區域比較(百萬立方公尺)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3196,7 +3234,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>南部 畜牧用水(百萬立方公尺)</c:v>
+                  <c:v>南部 畜牧用水區域比較(百萬立方公尺)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3278,7 +3316,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>東部 畜牧用水(百萬立方公尺)</c:v>
+                  <c:v>東部 畜牧用水區域比較(百萬立方公尺)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3360,11 +3398,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="46297600"/>
-        <c:axId val="334405632"/>
+        <c:axId val="287467008"/>
+        <c:axId val="191380224"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="46297600"/>
+        <c:axId val="287467008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3373,7 +3411,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="334405632"/>
+        <c:crossAx val="191380224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3381,7 +3419,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="334405632"/>
+        <c:axId val="191380224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3392,7 +3430,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="46297600"/>
+        <c:crossAx val="287467008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3447,7 +3485,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>合計 灌溉用水(百萬立方公尺)</c:v>
+                  <c:v>合計 灌溉用水區域比較(百萬立方公尺)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3533,11 +3571,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="183958528"/>
-        <c:axId val="207724544"/>
+        <c:axId val="287467520"/>
+        <c:axId val="263341760"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="183958528"/>
+        <c:axId val="287467520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3546,7 +3584,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="207724544"/>
+        <c:crossAx val="263341760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3554,7 +3592,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="207724544"/>
+        <c:axId val="263341760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3565,7 +3603,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="183958528"/>
+        <c:crossAx val="287467520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3574,6 +3612,388 @@
       <c:legendPos val="r"/>
       <c:layout/>
       <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="4.9984701025836478E-2"/>
+          <c:y val="1.3437012648435951E-2"/>
+          <c:w val="0.86865902942977569"/>
+          <c:h val="0.94004283829633484"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:areaChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表1!$A$23:$A$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>105</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表1!$B$23:$B$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>10682.42</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10423.32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10606.94</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11479.26</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11764.18</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10780.53</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10794.76</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11037.23</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10549.23</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11666.49</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11212.18</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11781.73</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>11088.49</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>11310.31</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>11402.68</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>11384.06</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>11996.89</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>10857.44</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>10791.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表1!$C$23:$C$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>1463.21</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1512</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1584</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1418.72</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1536.45</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1545.16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1701.26</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1633.15</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1577.89</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1587.72</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1646.77</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1315.13</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1042.8599999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1049.81</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1038.6600000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1013.28</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>972.37</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>880.09</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>875.99</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表1!$D$23:$D$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>109.17</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>113.79</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>110.13</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>108.73</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>107.76</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>111.15</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>111.1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>104.83</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>101.16</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>73.38</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>73.83</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>74.989999999999995</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>72.430000000000007</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>70.47</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>66.760000000000005</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>66.52</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>65.739999999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="265645568"/>
+        <c:axId val="263343488"/>
+      </c:areaChart>
+      <c:catAx>
+        <c:axId val="265645568"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="263343488"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="263343488"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="265645568"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -3669,14 +4089,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>178240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>197290</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3699,14 +4119,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>82990</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>102040</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3729,14 +4149,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>187765</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>2708</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3757,16 +4177,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>178253</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>197303</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3780,6 +4200,41 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>142876</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="圖表 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4960,7 +5415,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CH78"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="K3" sqref="K3:K7"/>
     </sheetView>
   </sheetViews>
@@ -4991,123 +5446,123 @@
       <c r="J1" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="14">
+      <c r="K1" s="18">
         <v>105</v>
       </c>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14">
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18">
         <v>104</v>
       </c>
-      <c r="P1" s="14"/>
-      <c r="Q1" s="14"/>
-      <c r="R1" s="14"/>
-      <c r="S1" s="14">
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="18"/>
+      <c r="S1" s="18">
         <v>103</v>
       </c>
-      <c r="T1" s="14"/>
-      <c r="U1" s="14"/>
-      <c r="V1" s="14"/>
-      <c r="W1" s="14">
+      <c r="T1" s="18"/>
+      <c r="U1" s="18"/>
+      <c r="V1" s="18"/>
+      <c r="W1" s="18">
         <v>102</v>
       </c>
-      <c r="X1" s="14"/>
-      <c r="Y1" s="14"/>
-      <c r="Z1" s="14"/>
-      <c r="AA1" s="14">
+      <c r="X1" s="18"/>
+      <c r="Y1" s="18"/>
+      <c r="Z1" s="18"/>
+      <c r="AA1" s="18">
         <v>101</v>
       </c>
-      <c r="AB1" s="14"/>
-      <c r="AC1" s="14"/>
-      <c r="AD1" s="14"/>
-      <c r="AE1" s="14">
+      <c r="AB1" s="18"/>
+      <c r="AC1" s="18"/>
+      <c r="AD1" s="18"/>
+      <c r="AE1" s="18">
         <v>100</v>
       </c>
-      <c r="AF1" s="14"/>
-      <c r="AG1" s="14"/>
-      <c r="AH1" s="14"/>
-      <c r="AI1" s="14">
+      <c r="AF1" s="18"/>
+      <c r="AG1" s="18"/>
+      <c r="AH1" s="18"/>
+      <c r="AI1" s="18">
         <v>99</v>
       </c>
-      <c r="AJ1" s="14"/>
-      <c r="AK1" s="14"/>
-      <c r="AL1" s="14"/>
-      <c r="AM1" s="14">
+      <c r="AJ1" s="18"/>
+      <c r="AK1" s="18"/>
+      <c r="AL1" s="18"/>
+      <c r="AM1" s="18">
         <v>98</v>
       </c>
-      <c r="AN1" s="14"/>
-      <c r="AO1" s="14"/>
-      <c r="AP1" s="14"/>
-      <c r="AQ1" s="14">
+      <c r="AN1" s="18"/>
+      <c r="AO1" s="18"/>
+      <c r="AP1" s="18"/>
+      <c r="AQ1" s="18">
         <v>97</v>
       </c>
-      <c r="AR1" s="14"/>
-      <c r="AS1" s="14"/>
-      <c r="AT1" s="14"/>
-      <c r="AU1" s="14">
+      <c r="AR1" s="18"/>
+      <c r="AS1" s="18"/>
+      <c r="AT1" s="18"/>
+      <c r="AU1" s="18">
         <v>96</v>
       </c>
-      <c r="AV1" s="14"/>
-      <c r="AW1" s="14"/>
-      <c r="AX1" s="14"/>
-      <c r="AY1" s="14">
+      <c r="AV1" s="18"/>
+      <c r="AW1" s="18"/>
+      <c r="AX1" s="18"/>
+      <c r="AY1" s="18">
         <v>95</v>
       </c>
-      <c r="AZ1" s="14"/>
-      <c r="BA1" s="14"/>
-      <c r="BB1" s="14"/>
-      <c r="BC1" s="14">
+      <c r="AZ1" s="18"/>
+      <c r="BA1" s="18"/>
+      <c r="BB1" s="18"/>
+      <c r="BC1" s="18">
         <v>94</v>
       </c>
-      <c r="BD1" s="14"/>
-      <c r="BE1" s="14"/>
-      <c r="BF1" s="14"/>
-      <c r="BG1" s="14">
+      <c r="BD1" s="18"/>
+      <c r="BE1" s="18"/>
+      <c r="BF1" s="18"/>
+      <c r="BG1" s="18">
         <v>93</v>
       </c>
-      <c r="BH1" s="14"/>
-      <c r="BI1" s="14"/>
-      <c r="BJ1" s="14"/>
-      <c r="BK1" s="14">
+      <c r="BH1" s="18"/>
+      <c r="BI1" s="18"/>
+      <c r="BJ1" s="18"/>
+      <c r="BK1" s="18">
         <v>92</v>
       </c>
-      <c r="BL1" s="14"/>
-      <c r="BM1" s="14"/>
-      <c r="BN1" s="14"/>
-      <c r="BO1" s="14">
+      <c r="BL1" s="18"/>
+      <c r="BM1" s="18"/>
+      <c r="BN1" s="18"/>
+      <c r="BO1" s="18">
         <v>91</v>
       </c>
-      <c r="BP1" s="14"/>
-      <c r="BQ1" s="14"/>
-      <c r="BR1" s="14"/>
-      <c r="BS1" s="14">
+      <c r="BP1" s="18"/>
+      <c r="BQ1" s="18"/>
+      <c r="BR1" s="18"/>
+      <c r="BS1" s="18">
         <v>90</v>
       </c>
-      <c r="BT1" s="14"/>
-      <c r="BU1" s="14"/>
-      <c r="BV1" s="14"/>
-      <c r="BW1" s="14">
+      <c r="BT1" s="18"/>
+      <c r="BU1" s="18"/>
+      <c r="BV1" s="18"/>
+      <c r="BW1" s="18">
         <v>89</v>
       </c>
-      <c r="BX1" s="14"/>
-      <c r="BY1" s="14"/>
-      <c r="BZ1" s="14"/>
-      <c r="CA1" s="14">
+      <c r="BX1" s="18"/>
+      <c r="BY1" s="18"/>
+      <c r="BZ1" s="18"/>
+      <c r="CA1" s="18">
         <v>88</v>
       </c>
-      <c r="CB1" s="14"/>
-      <c r="CC1" s="14"/>
-      <c r="CD1" s="14"/>
-      <c r="CE1" s="14">
+      <c r="CB1" s="18"/>
+      <c r="CC1" s="18"/>
+      <c r="CD1" s="18"/>
+      <c r="CE1" s="18">
         <v>87</v>
       </c>
-      <c r="CF1" s="14"/>
-      <c r="CG1" s="14"/>
-      <c r="CH1" s="14"/>
+      <c r="CF1" s="18"/>
+      <c r="CG1" s="18"/>
+      <c r="CH1" s="18"/>
     </row>
     <row r="2" spans="1:86" ht="18" thickTop="1" thickBot="1">
-      <c r="A2" s="16">
+      <c r="A2" s="19">
         <v>105</v>
       </c>
       <c r="B2" s="7" t="s">
@@ -5361,7 +5816,7 @@
       </c>
     </row>
     <row r="3" spans="1:86" ht="18" thickTop="1" thickBot="1">
-      <c r="A3" s="15"/>
+      <c r="A3" s="17"/>
       <c r="B3" s="10" t="s">
         <v>18</v>
       </c>
@@ -5613,7 +6068,7 @@
       </c>
     </row>
     <row r="4" spans="1:86" ht="18" thickTop="1" thickBot="1">
-      <c r="A4" s="15"/>
+      <c r="A4" s="17"/>
       <c r="B4" s="12" t="s">
         <v>19</v>
       </c>
@@ -5865,7 +6320,7 @@
       </c>
     </row>
     <row r="5" spans="1:86" ht="18" thickTop="1" thickBot="1">
-      <c r="A5" s="15"/>
+      <c r="A5" s="17"/>
       <c r="B5" s="10" t="s">
         <v>5</v>
       </c>
@@ -6117,7 +6572,7 @@
       </c>
     </row>
     <row r="6" spans="1:86" ht="18" thickTop="1" thickBot="1">
-      <c r="A6" s="15">
+      <c r="A6" s="17">
         <v>104</v>
       </c>
       <c r="B6" s="7" t="s">
@@ -6371,7 +6826,7 @@
       </c>
     </row>
     <row r="7" spans="1:86" ht="18" thickTop="1" thickBot="1">
-      <c r="A7" s="15"/>
+      <c r="A7" s="17"/>
       <c r="B7" s="10" t="s">
         <v>18</v>
       </c>
@@ -6623,7 +7078,7 @@
       </c>
     </row>
     <row r="8" spans="1:86" ht="18" thickTop="1" thickBot="1">
-      <c r="A8" s="15"/>
+      <c r="A8" s="17"/>
       <c r="B8" s="12" t="s">
         <v>19</v>
       </c>
@@ -6644,7 +7099,7 @@
       </c>
     </row>
     <row r="9" spans="1:86" ht="18" thickTop="1" thickBot="1">
-      <c r="A9" s="15"/>
+      <c r="A9" s="17"/>
       <c r="B9" s="10" t="s">
         <v>5</v>
       </c>
@@ -6665,7 +7120,7 @@
       </c>
     </row>
     <row r="10" spans="1:86" ht="18" thickTop="1" thickBot="1">
-      <c r="A10" s="15">
+      <c r="A10" s="17">
         <v>103</v>
       </c>
       <c r="B10" s="7" t="s">
@@ -6688,7 +7143,7 @@
       </c>
     </row>
     <row r="11" spans="1:86" ht="18" thickTop="1" thickBot="1">
-      <c r="A11" s="15"/>
+      <c r="A11" s="17"/>
       <c r="B11" s="10" t="s">
         <v>18</v>
       </c>
@@ -6709,7 +7164,7 @@
       </c>
     </row>
     <row r="12" spans="1:86" ht="18" thickTop="1" thickBot="1">
-      <c r="A12" s="15"/>
+      <c r="A12" s="17"/>
       <c r="B12" s="12" t="s">
         <v>19</v>
       </c>
@@ -6730,7 +7185,7 @@
       </c>
     </row>
     <row r="13" spans="1:86" ht="18" thickTop="1" thickBot="1">
-      <c r="A13" s="15"/>
+      <c r="A13" s="17"/>
       <c r="B13" s="10" t="s">
         <v>5</v>
       </c>
@@ -6751,7 +7206,7 @@
       </c>
     </row>
     <row r="14" spans="1:86" ht="18" thickTop="1" thickBot="1">
-      <c r="A14" s="15">
+      <c r="A14" s="17">
         <v>102</v>
       </c>
       <c r="B14" s="7" t="s">
@@ -6774,7 +7229,7 @@
       </c>
     </row>
     <row r="15" spans="1:86" ht="18" thickTop="1" thickBot="1">
-      <c r="A15" s="15"/>
+      <c r="A15" s="17"/>
       <c r="B15" s="10" t="s">
         <v>18</v>
       </c>
@@ -6795,7 +7250,7 @@
       </c>
     </row>
     <row r="16" spans="1:86" ht="18" thickTop="1" thickBot="1">
-      <c r="A16" s="15"/>
+      <c r="A16" s="17"/>
       <c r="B16" s="12" t="s">
         <v>19</v>
       </c>
@@ -6816,7 +7271,7 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="18" thickTop="1" thickBot="1">
-      <c r="A17" s="15"/>
+      <c r="A17" s="17"/>
       <c r="B17" s="10" t="s">
         <v>5</v>
       </c>
@@ -6837,7 +7292,7 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="18" thickTop="1" thickBot="1">
-      <c r="A18" s="15">
+      <c r="A18" s="17">
         <v>101</v>
       </c>
       <c r="B18" s="7" t="s">
@@ -6860,7 +7315,7 @@
       </c>
     </row>
     <row r="19" spans="1:7" ht="18" thickTop="1" thickBot="1">
-      <c r="A19" s="15"/>
+      <c r="A19" s="17"/>
       <c r="B19" s="10" t="s">
         <v>18</v>
       </c>
@@ -6881,7 +7336,7 @@
       </c>
     </row>
     <row r="20" spans="1:7" ht="18" thickTop="1" thickBot="1">
-      <c r="A20" s="15"/>
+      <c r="A20" s="17"/>
       <c r="B20" s="12" t="s">
         <v>19</v>
       </c>
@@ -6902,7 +7357,7 @@
       </c>
     </row>
     <row r="21" spans="1:7" ht="18" thickTop="1" thickBot="1">
-      <c r="A21" s="15"/>
+      <c r="A21" s="17"/>
       <c r="B21" s="10" t="s">
         <v>5</v>
       </c>
@@ -6923,7 +7378,7 @@
       </c>
     </row>
     <row r="22" spans="1:7" ht="18" thickTop="1" thickBot="1">
-      <c r="A22" s="15">
+      <c r="A22" s="17">
         <v>100</v>
       </c>
       <c r="B22" s="7" t="s">
@@ -6946,7 +7401,7 @@
       </c>
     </row>
     <row r="23" spans="1:7" ht="18" thickTop="1" thickBot="1">
-      <c r="A23" s="15"/>
+      <c r="A23" s="17"/>
       <c r="B23" s="10" t="s">
         <v>18</v>
       </c>
@@ -6967,7 +7422,7 @@
       </c>
     </row>
     <row r="24" spans="1:7" ht="18" thickTop="1" thickBot="1">
-      <c r="A24" s="15"/>
+      <c r="A24" s="17"/>
       <c r="B24" s="12" t="s">
         <v>19</v>
       </c>
@@ -6988,7 +7443,7 @@
       </c>
     </row>
     <row r="25" spans="1:7" ht="18" thickTop="1" thickBot="1">
-      <c r="A25" s="15"/>
+      <c r="A25" s="17"/>
       <c r="B25" s="10" t="s">
         <v>5</v>
       </c>
@@ -7009,7 +7464,7 @@
       </c>
     </row>
     <row r="26" spans="1:7" ht="18" thickTop="1" thickBot="1">
-      <c r="A26" s="15">
+      <c r="A26" s="17">
         <v>99</v>
       </c>
       <c r="B26" s="7" t="s">
@@ -7032,7 +7487,7 @@
       </c>
     </row>
     <row r="27" spans="1:7" ht="18" thickTop="1" thickBot="1">
-      <c r="A27" s="15"/>
+      <c r="A27" s="17"/>
       <c r="B27" s="10" t="s">
         <v>18</v>
       </c>
@@ -7053,7 +7508,7 @@
       </c>
     </row>
     <row r="28" spans="1:7" ht="18" thickTop="1" thickBot="1">
-      <c r="A28" s="15"/>
+      <c r="A28" s="17"/>
       <c r="B28" s="12" t="s">
         <v>19</v>
       </c>
@@ -7074,7 +7529,7 @@
       </c>
     </row>
     <row r="29" spans="1:7" ht="18" thickTop="1" thickBot="1">
-      <c r="A29" s="15"/>
+      <c r="A29" s="17"/>
       <c r="B29" s="10" t="s">
         <v>5</v>
       </c>
@@ -7095,7 +7550,7 @@
       </c>
     </row>
     <row r="30" spans="1:7" ht="18" thickTop="1" thickBot="1">
-      <c r="A30" s="15">
+      <c r="A30" s="17">
         <v>98</v>
       </c>
       <c r="B30" s="7" t="s">
@@ -7118,7 +7573,7 @@
       </c>
     </row>
     <row r="31" spans="1:7" ht="18" thickTop="1" thickBot="1">
-      <c r="A31" s="15"/>
+      <c r="A31" s="17"/>
       <c r="B31" s="10" t="s">
         <v>18</v>
       </c>
@@ -7139,7 +7594,7 @@
       </c>
     </row>
     <row r="32" spans="1:7" ht="18" thickTop="1" thickBot="1">
-      <c r="A32" s="15"/>
+      <c r="A32" s="17"/>
       <c r="B32" s="12" t="s">
         <v>19</v>
       </c>
@@ -7160,7 +7615,7 @@
       </c>
     </row>
     <row r="33" spans="1:7" ht="18" thickTop="1" thickBot="1">
-      <c r="A33" s="15"/>
+      <c r="A33" s="17"/>
       <c r="B33" s="10" t="s">
         <v>5</v>
       </c>
@@ -7181,7 +7636,7 @@
       </c>
     </row>
     <row r="34" spans="1:7" ht="18" thickTop="1" thickBot="1">
-      <c r="A34" s="15">
+      <c r="A34" s="17">
         <v>97</v>
       </c>
       <c r="B34" s="7" t="s">
@@ -7204,7 +7659,7 @@
       </c>
     </row>
     <row r="35" spans="1:7" ht="18" thickTop="1" thickBot="1">
-      <c r="A35" s="15"/>
+      <c r="A35" s="17"/>
       <c r="B35" s="10" t="s">
         <v>18</v>
       </c>
@@ -7225,7 +7680,7 @@
       </c>
     </row>
     <row r="36" spans="1:7" ht="18" thickTop="1" thickBot="1">
-      <c r="A36" s="15"/>
+      <c r="A36" s="17"/>
       <c r="B36" s="12" t="s">
         <v>19</v>
       </c>
@@ -7246,7 +7701,7 @@
       </c>
     </row>
     <row r="37" spans="1:7" ht="18" thickTop="1" thickBot="1">
-      <c r="A37" s="15"/>
+      <c r="A37" s="17"/>
       <c r="B37" s="10" t="s">
         <v>5</v>
       </c>
@@ -7267,7 +7722,7 @@
       </c>
     </row>
     <row r="38" spans="1:7" ht="18" thickTop="1" thickBot="1">
-      <c r="A38" s="15">
+      <c r="A38" s="17">
         <v>96</v>
       </c>
       <c r="B38" s="7" t="s">
@@ -7290,7 +7745,7 @@
       </c>
     </row>
     <row r="39" spans="1:7" ht="18" thickTop="1" thickBot="1">
-      <c r="A39" s="15"/>
+      <c r="A39" s="17"/>
       <c r="B39" s="10" t="s">
         <v>18</v>
       </c>
@@ -7311,7 +7766,7 @@
       </c>
     </row>
     <row r="40" spans="1:7" ht="18" thickTop="1" thickBot="1">
-      <c r="A40" s="15"/>
+      <c r="A40" s="17"/>
       <c r="B40" s="12" t="s">
         <v>19</v>
       </c>
@@ -7332,7 +7787,7 @@
       </c>
     </row>
     <row r="41" spans="1:7" ht="18" thickTop="1" thickBot="1">
-      <c r="A41" s="15"/>
+      <c r="A41" s="17"/>
       <c r="B41" s="10" t="s">
         <v>5</v>
       </c>
@@ -7353,7 +7808,7 @@
       </c>
     </row>
     <row r="42" spans="1:7" ht="18" thickTop="1" thickBot="1">
-      <c r="A42" s="15">
+      <c r="A42" s="17">
         <v>95</v>
       </c>
       <c r="B42" s="7" t="s">
@@ -7376,7 +7831,7 @@
       </c>
     </row>
     <row r="43" spans="1:7" ht="18" thickTop="1" thickBot="1">
-      <c r="A43" s="15"/>
+      <c r="A43" s="17"/>
       <c r="B43" s="10" t="s">
         <v>18</v>
       </c>
@@ -7397,7 +7852,7 @@
       </c>
     </row>
     <row r="44" spans="1:7" ht="18" thickTop="1" thickBot="1">
-      <c r="A44" s="15"/>
+      <c r="A44" s="17"/>
       <c r="B44" s="12" t="s">
         <v>19</v>
       </c>
@@ -7418,7 +7873,7 @@
       </c>
     </row>
     <row r="45" spans="1:7" ht="18" thickTop="1" thickBot="1">
-      <c r="A45" s="15"/>
+      <c r="A45" s="17"/>
       <c r="B45" s="10" t="s">
         <v>5</v>
       </c>
@@ -7439,7 +7894,7 @@
       </c>
     </row>
     <row r="46" spans="1:7" ht="18" thickTop="1" thickBot="1">
-      <c r="A46" s="15">
+      <c r="A46" s="17">
         <v>94</v>
       </c>
       <c r="B46" s="7" t="s">
@@ -7462,7 +7917,7 @@
       </c>
     </row>
     <row r="47" spans="1:7" ht="18" thickTop="1" thickBot="1">
-      <c r="A47" s="15"/>
+      <c r="A47" s="17"/>
       <c r="B47" s="10" t="s">
         <v>18</v>
       </c>
@@ -7483,7 +7938,7 @@
       </c>
     </row>
     <row r="48" spans="1:7" ht="18" thickTop="1" thickBot="1">
-      <c r="A48" s="15"/>
+      <c r="A48" s="17"/>
       <c r="B48" s="12" t="s">
         <v>19</v>
       </c>
@@ -7504,7 +7959,7 @@
       </c>
     </row>
     <row r="49" spans="1:7" ht="18" thickTop="1" thickBot="1">
-      <c r="A49" s="15"/>
+      <c r="A49" s="17"/>
       <c r="B49" s="10" t="s">
         <v>5</v>
       </c>
@@ -7525,7 +7980,7 @@
       </c>
     </row>
     <row r="50" spans="1:7" ht="18" thickTop="1" thickBot="1">
-      <c r="A50" s="15">
+      <c r="A50" s="17">
         <v>93</v>
       </c>
       <c r="B50" s="7" t="s">
@@ -7548,7 +8003,7 @@
       </c>
     </row>
     <row r="51" spans="1:7" ht="18" thickTop="1" thickBot="1">
-      <c r="A51" s="15"/>
+      <c r="A51" s="17"/>
       <c r="B51" s="10" t="s">
         <v>18</v>
       </c>
@@ -7569,7 +8024,7 @@
       </c>
     </row>
     <row r="52" spans="1:7" ht="18" thickTop="1" thickBot="1">
-      <c r="A52" s="15"/>
+      <c r="A52" s="17"/>
       <c r="B52" s="12" t="s">
         <v>19</v>
       </c>
@@ -7590,7 +8045,7 @@
       </c>
     </row>
     <row r="53" spans="1:7" ht="18" thickTop="1" thickBot="1">
-      <c r="A53" s="15"/>
+      <c r="A53" s="17"/>
       <c r="B53" s="10" t="s">
         <v>5</v>
       </c>
@@ -7611,7 +8066,7 @@
       </c>
     </row>
     <row r="54" spans="1:7" ht="18" thickTop="1" thickBot="1">
-      <c r="A54" s="15">
+      <c r="A54" s="17">
         <v>92</v>
       </c>
       <c r="B54" s="7" t="s">
@@ -7634,7 +8089,7 @@
       </c>
     </row>
     <row r="55" spans="1:7" ht="18" thickTop="1" thickBot="1">
-      <c r="A55" s="15"/>
+      <c r="A55" s="17"/>
       <c r="B55" s="10" t="s">
         <v>18</v>
       </c>
@@ -7655,7 +8110,7 @@
       </c>
     </row>
     <row r="56" spans="1:7" ht="18" thickTop="1" thickBot="1">
-      <c r="A56" s="15"/>
+      <c r="A56" s="17"/>
       <c r="B56" s="12" t="s">
         <v>19</v>
       </c>
@@ -7676,7 +8131,7 @@
       </c>
     </row>
     <row r="57" spans="1:7" ht="18" thickTop="1" thickBot="1">
-      <c r="A57" s="15"/>
+      <c r="A57" s="17"/>
       <c r="B57" s="10" t="s">
         <v>5</v>
       </c>
@@ -7697,7 +8152,7 @@
       </c>
     </row>
     <row r="58" spans="1:7" ht="18" thickTop="1" thickBot="1">
-      <c r="A58" s="15">
+      <c r="A58" s="17">
         <v>91</v>
       </c>
       <c r="B58" s="7" t="s">
@@ -7720,7 +8175,7 @@
       </c>
     </row>
     <row r="59" spans="1:7" ht="18" thickTop="1" thickBot="1">
-      <c r="A59" s="15"/>
+      <c r="A59" s="17"/>
       <c r="B59" s="10" t="s">
         <v>18</v>
       </c>
@@ -7741,7 +8196,7 @@
       </c>
     </row>
     <row r="60" spans="1:7" ht="18" thickTop="1" thickBot="1">
-      <c r="A60" s="15"/>
+      <c r="A60" s="17"/>
       <c r="B60" s="12" t="s">
         <v>19</v>
       </c>
@@ -7762,7 +8217,7 @@
       </c>
     </row>
     <row r="61" spans="1:7" ht="18" thickTop="1" thickBot="1">
-      <c r="A61" s="15"/>
+      <c r="A61" s="17"/>
       <c r="B61" s="10" t="s">
         <v>5</v>
       </c>
@@ -7783,7 +8238,7 @@
       </c>
     </row>
     <row r="62" spans="1:7" ht="18" thickTop="1" thickBot="1">
-      <c r="A62" s="15">
+      <c r="A62" s="17">
         <v>90</v>
       </c>
       <c r="B62" s="7" t="s">
@@ -7806,7 +8261,7 @@
       </c>
     </row>
     <row r="63" spans="1:7" ht="18" thickTop="1" thickBot="1">
-      <c r="A63" s="15"/>
+      <c r="A63" s="17"/>
       <c r="B63" s="10" t="s">
         <v>18</v>
       </c>
@@ -7827,7 +8282,7 @@
       </c>
     </row>
     <row r="64" spans="1:7" ht="18" thickTop="1" thickBot="1">
-      <c r="A64" s="15"/>
+      <c r="A64" s="17"/>
       <c r="B64" s="12" t="s">
         <v>19</v>
       </c>
@@ -7848,7 +8303,7 @@
       </c>
     </row>
     <row r="65" spans="1:7" ht="18" thickTop="1" thickBot="1">
-      <c r="A65" s="15"/>
+      <c r="A65" s="17"/>
       <c r="B65" s="10" t="s">
         <v>5</v>
       </c>
@@ -7869,7 +8324,7 @@
       </c>
     </row>
     <row r="66" spans="1:7" ht="18" thickTop="1" thickBot="1">
-      <c r="A66" s="15">
+      <c r="A66" s="17">
         <v>89</v>
       </c>
       <c r="B66" s="7" t="s">
@@ -7892,7 +8347,7 @@
       </c>
     </row>
     <row r="67" spans="1:7" ht="18" thickTop="1" thickBot="1">
-      <c r="A67" s="15"/>
+      <c r="A67" s="17"/>
       <c r="B67" s="10" t="s">
         <v>18</v>
       </c>
@@ -7913,7 +8368,7 @@
       </c>
     </row>
     <row r="68" spans="1:7" ht="18" thickTop="1" thickBot="1">
-      <c r="A68" s="15"/>
+      <c r="A68" s="17"/>
       <c r="B68" s="12" t="s">
         <v>19</v>
       </c>
@@ -7934,7 +8389,7 @@
       </c>
     </row>
     <row r="69" spans="1:7" ht="18" thickTop="1" thickBot="1">
-      <c r="A69" s="15"/>
+      <c r="A69" s="17"/>
       <c r="B69" s="10" t="s">
         <v>5</v>
       </c>
@@ -7955,7 +8410,7 @@
       </c>
     </row>
     <row r="70" spans="1:7" ht="18" thickTop="1" thickBot="1">
-      <c r="A70" s="15">
+      <c r="A70" s="17">
         <v>88</v>
       </c>
       <c r="B70" s="7" t="s">
@@ -7978,7 +8433,7 @@
       </c>
     </row>
     <row r="71" spans="1:7" ht="18" thickTop="1" thickBot="1">
-      <c r="A71" s="15"/>
+      <c r="A71" s="17"/>
       <c r="B71" s="10" t="s">
         <v>18</v>
       </c>
@@ -7999,7 +8454,7 @@
       </c>
     </row>
     <row r="72" spans="1:7" ht="18" thickTop="1" thickBot="1">
-      <c r="A72" s="15"/>
+      <c r="A72" s="17"/>
       <c r="B72" s="12" t="s">
         <v>19</v>
       </c>
@@ -8020,7 +8475,7 @@
       </c>
     </row>
     <row r="73" spans="1:7" ht="18" thickTop="1" thickBot="1">
-      <c r="A73" s="15"/>
+      <c r="A73" s="17"/>
       <c r="B73" s="10" t="s">
         <v>5</v>
       </c>
@@ -8041,7 +8496,7 @@
       </c>
     </row>
     <row r="74" spans="1:7" ht="18" thickTop="1" thickBot="1">
-      <c r="A74" s="15">
+      <c r="A74" s="17">
         <v>87</v>
       </c>
       <c r="B74" s="7" t="s">
@@ -8064,7 +8519,7 @@
       </c>
     </row>
     <row r="75" spans="1:7" ht="18" thickTop="1" thickBot="1">
-      <c r="A75" s="15"/>
+      <c r="A75" s="17"/>
       <c r="B75" s="10" t="s">
         <v>18</v>
       </c>
@@ -8085,7 +8540,7 @@
       </c>
     </row>
     <row r="76" spans="1:7" ht="18" thickTop="1" thickBot="1">
-      <c r="A76" s="15"/>
+      <c r="A76" s="17"/>
       <c r="B76" s="12" t="s">
         <v>19</v>
       </c>
@@ -8106,7 +8561,7 @@
       </c>
     </row>
     <row r="77" spans="1:7" ht="18" thickTop="1" thickBot="1">
-      <c r="A77" s="15"/>
+      <c r="A77" s="17"/>
       <c r="B77" s="10" t="s">
         <v>5</v>
       </c>
@@ -8129,11 +8584,23 @@
     <row r="78" spans="1:7" ht="17.25" thickTop="1"/>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="BO1:BR1"/>
+    <mergeCell ref="BS1:BV1"/>
+    <mergeCell ref="BW1:BZ1"/>
+    <mergeCell ref="CA1:CD1"/>
+    <mergeCell ref="CE1:CH1"/>
+    <mergeCell ref="BK1:BN1"/>
+    <mergeCell ref="S1:V1"/>
+    <mergeCell ref="W1:Z1"/>
+    <mergeCell ref="AA1:AD1"/>
+    <mergeCell ref="AE1:AH1"/>
+    <mergeCell ref="AI1:AL1"/>
+    <mergeCell ref="AM1:AP1"/>
+    <mergeCell ref="AQ1:AT1"/>
+    <mergeCell ref="AU1:AX1"/>
+    <mergeCell ref="AY1:BB1"/>
+    <mergeCell ref="BC1:BF1"/>
+    <mergeCell ref="BG1:BJ1"/>
     <mergeCell ref="K1:N1"/>
     <mergeCell ref="O1:R1"/>
     <mergeCell ref="A74:A77"/>
@@ -8150,23 +8617,11 @@
     <mergeCell ref="A42:A45"/>
     <mergeCell ref="A46:A49"/>
     <mergeCell ref="A2:A5"/>
-    <mergeCell ref="BK1:BN1"/>
-    <mergeCell ref="S1:V1"/>
-    <mergeCell ref="W1:Z1"/>
-    <mergeCell ref="AA1:AD1"/>
-    <mergeCell ref="AE1:AH1"/>
-    <mergeCell ref="AI1:AL1"/>
-    <mergeCell ref="AM1:AP1"/>
-    <mergeCell ref="AQ1:AT1"/>
-    <mergeCell ref="AU1:AX1"/>
-    <mergeCell ref="AY1:BB1"/>
-    <mergeCell ref="BC1:BF1"/>
-    <mergeCell ref="BG1:BJ1"/>
-    <mergeCell ref="BO1:BR1"/>
-    <mergeCell ref="BS1:BV1"/>
-    <mergeCell ref="BW1:BZ1"/>
-    <mergeCell ref="CA1:CD1"/>
-    <mergeCell ref="CE1:CH1"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="A22:A25"/>
   </mergeCells>
   <phoneticPr fontId="24" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8176,10 +8631,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U16"/>
+  <dimension ref="A1:U19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:U6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -8254,7 +8709,7 @@
         <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C2">
         <v>2099.1799999999998</v>
@@ -8318,8 +8773,8 @@
       <c r="A3" t="s">
         <v>23</v>
       </c>
-      <c r="B3" t="s">
-        <v>27</v>
+      <c r="B3" s="16" t="s">
+        <v>30</v>
       </c>
       <c r="C3">
         <v>4708.43</v>
@@ -8383,8 +8838,8 @@
       <c r="A4" t="s">
         <v>24</v>
       </c>
-      <c r="B4" t="s">
-        <v>27</v>
+      <c r="B4" s="16" t="s">
+        <v>30</v>
       </c>
       <c r="C4">
         <v>1655.83</v>
@@ -8448,8 +8903,8 @@
       <c r="A5" t="s">
         <v>25</v>
       </c>
-      <c r="B5" t="s">
-        <v>27</v>
+      <c r="B5" s="16" t="s">
+        <v>30</v>
       </c>
       <c r="C5">
         <v>2218.98</v>
@@ -8513,8 +8968,8 @@
       <c r="A6" t="s">
         <v>26</v>
       </c>
-      <c r="B6" t="s">
-        <v>27</v>
+      <c r="B6" s="16" t="s">
+        <v>30</v>
       </c>
       <c r="C6">
         <v>10682.42</v>
@@ -8579,7 +9034,7 @@
         <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C7">
         <v>42.93</v>
@@ -8643,8 +9098,8 @@
       <c r="A8" t="s">
         <v>23</v>
       </c>
-      <c r="B8" t="s">
-        <v>28</v>
+      <c r="B8" s="16" t="s">
+        <v>31</v>
       </c>
       <c r="C8">
         <v>560.38</v>
@@ -8708,8 +9163,8 @@
       <c r="A9" t="s">
         <v>24</v>
       </c>
-      <c r="B9" t="s">
-        <v>28</v>
+      <c r="B9" s="16" t="s">
+        <v>31</v>
       </c>
       <c r="C9">
         <v>810.92</v>
@@ -8773,8 +9228,8 @@
       <c r="A10" t="s">
         <v>25</v>
       </c>
-      <c r="B10" t="s">
-        <v>28</v>
+      <c r="B10" s="16" t="s">
+        <v>31</v>
       </c>
       <c r="C10">
         <v>48.98</v>
@@ -8838,8 +9293,8 @@
       <c r="A11" t="s">
         <v>26</v>
       </c>
-      <c r="B11" t="s">
-        <v>28</v>
+      <c r="B11" s="16" t="s">
+        <v>31</v>
       </c>
       <c r="C11">
         <v>1463.21</v>
@@ -8904,7 +9359,7 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C12">
         <v>9.9</v>
@@ -8968,8 +9423,8 @@
       <c r="A13" t="s">
         <v>23</v>
       </c>
-      <c r="B13" t="s">
-        <v>29</v>
+      <c r="B13" s="16" t="s">
+        <v>32</v>
       </c>
       <c r="C13">
         <v>41.84</v>
@@ -9033,8 +9488,8 @@
       <c r="A14" t="s">
         <v>24</v>
       </c>
-      <c r="B14" t="s">
-        <v>29</v>
+      <c r="B14" s="16" t="s">
+        <v>32</v>
       </c>
       <c r="C14">
         <v>54.27</v>
@@ -9098,8 +9553,8 @@
       <c r="A15" t="s">
         <v>25</v>
       </c>
-      <c r="B15" t="s">
-        <v>29</v>
+      <c r="B15" s="16" t="s">
+        <v>32</v>
       </c>
       <c r="C15">
         <v>3.16</v>
@@ -9163,8 +9618,8 @@
       <c r="A16" t="s">
         <v>26</v>
       </c>
-      <c r="B16" t="s">
-        <v>29</v>
+      <c r="B16" s="16" t="s">
+        <v>32</v>
       </c>
       <c r="C16">
         <v>109.17</v>
@@ -9221,6 +9676,1533 @@
         <v>66.52</v>
       </c>
       <c r="U16">
+        <v>65.739999999999995</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21">
+      <c r="A17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="16">
+        <v>10682.42</v>
+      </c>
+      <c r="D17" s="16">
+        <v>10423.32</v>
+      </c>
+      <c r="E17" s="16">
+        <v>10606.94</v>
+      </c>
+      <c r="F17" s="16">
+        <v>11479.26</v>
+      </c>
+      <c r="G17" s="16">
+        <v>11764.18</v>
+      </c>
+      <c r="H17" s="16">
+        <v>10780.53</v>
+      </c>
+      <c r="I17" s="16">
+        <v>10794.76</v>
+      </c>
+      <c r="J17" s="16">
+        <v>11037.23</v>
+      </c>
+      <c r="K17" s="16">
+        <v>10549.23</v>
+      </c>
+      <c r="L17" s="16">
+        <v>11666.49</v>
+      </c>
+      <c r="M17" s="16">
+        <v>11212.18</v>
+      </c>
+      <c r="N17" s="16">
+        <v>11781.73</v>
+      </c>
+      <c r="O17" s="16">
+        <v>11088.49</v>
+      </c>
+      <c r="P17" s="16">
+        <v>11310.31</v>
+      </c>
+      <c r="Q17" s="16">
+        <v>11402.68</v>
+      </c>
+      <c r="R17" s="16">
+        <v>11384.06</v>
+      </c>
+      <c r="S17" s="16">
+        <v>11996.89</v>
+      </c>
+      <c r="T17" s="16">
+        <v>10857.44</v>
+      </c>
+      <c r="U17" s="16">
+        <v>10791.9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21">
+      <c r="A18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="16">
+        <v>1463.21</v>
+      </c>
+      <c r="D18" s="16">
+        <v>1512</v>
+      </c>
+      <c r="E18" s="16">
+        <v>1584</v>
+      </c>
+      <c r="F18" s="16">
+        <v>1418.72</v>
+      </c>
+      <c r="G18" s="16">
+        <v>1536.45</v>
+      </c>
+      <c r="H18" s="16">
+        <v>1545.16</v>
+      </c>
+      <c r="I18" s="16">
+        <v>1701.26</v>
+      </c>
+      <c r="J18" s="16">
+        <v>1633.15</v>
+      </c>
+      <c r="K18" s="16">
+        <v>1577.89</v>
+      </c>
+      <c r="L18" s="16">
+        <v>1587.72</v>
+      </c>
+      <c r="M18" s="16">
+        <v>1646.77</v>
+      </c>
+      <c r="N18" s="16">
+        <v>1315.13</v>
+      </c>
+      <c r="O18" s="16">
+        <v>1042.8599999999999</v>
+      </c>
+      <c r="P18" s="16">
+        <v>1049.81</v>
+      </c>
+      <c r="Q18" s="16">
+        <v>1038.6600000000001</v>
+      </c>
+      <c r="R18" s="16">
+        <v>1013.28</v>
+      </c>
+      <c r="S18" s="16">
+        <v>972.37</v>
+      </c>
+      <c r="T18" s="16">
+        <v>880.09</v>
+      </c>
+      <c r="U18" s="16">
+        <v>875.99</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21">
+      <c r="A19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="16">
+        <v>109.17</v>
+      </c>
+      <c r="D19" s="16">
+        <v>117</v>
+      </c>
+      <c r="E19" s="16">
+        <v>119</v>
+      </c>
+      <c r="F19" s="16">
+        <v>113.79</v>
+      </c>
+      <c r="G19" s="16">
+        <v>110.13</v>
+      </c>
+      <c r="H19" s="16">
+        <v>108.73</v>
+      </c>
+      <c r="I19" s="16">
+        <v>107.76</v>
+      </c>
+      <c r="J19" s="16">
+        <v>111.15</v>
+      </c>
+      <c r="K19" s="16">
+        <v>111.1</v>
+      </c>
+      <c r="L19" s="16">
+        <v>104.83</v>
+      </c>
+      <c r="M19" s="16">
+        <v>101.16</v>
+      </c>
+      <c r="N19" s="16">
+        <v>73.38</v>
+      </c>
+      <c r="O19" s="16">
+        <v>73.83</v>
+      </c>
+      <c r="P19" s="16">
+        <v>74.989999999999995</v>
+      </c>
+      <c r="Q19" s="16">
+        <v>72.430000000000007</v>
+      </c>
+      <c r="R19" s="16">
+        <v>70.47</v>
+      </c>
+      <c r="S19" s="16">
+        <v>66.760000000000005</v>
+      </c>
+      <c r="T19" s="16">
+        <v>66.52</v>
+      </c>
+      <c r="U19" s="16">
+        <v>65.739999999999995</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="24" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="1" spans="1:16">
+      <c r="A1" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="K1" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="L1" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="N1" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="O1" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="P1" s="14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="L2" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="M2" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="N2" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="O2" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="P2" s="14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" s="14">
+        <v>87</v>
+      </c>
+      <c r="B3" s="14">
+        <v>2099.1799999999998</v>
+      </c>
+      <c r="C3" s="14">
+        <v>4708.43</v>
+      </c>
+      <c r="D3" s="14">
+        <v>1655.83</v>
+      </c>
+      <c r="E3" s="14">
+        <v>2218.98</v>
+      </c>
+      <c r="F3" s="14">
+        <v>10682.42</v>
+      </c>
+      <c r="G3" s="14">
+        <v>42.93</v>
+      </c>
+      <c r="H3" s="14">
+        <v>560.38</v>
+      </c>
+      <c r="I3" s="14">
+        <v>810.92</v>
+      </c>
+      <c r="J3" s="14">
+        <v>48.98</v>
+      </c>
+      <c r="K3" s="14">
+        <v>1463.21</v>
+      </c>
+      <c r="L3" s="14">
+        <v>9.9</v>
+      </c>
+      <c r="M3" s="14">
+        <v>41.84</v>
+      </c>
+      <c r="N3" s="14">
+        <v>54.27</v>
+      </c>
+      <c r="O3" s="14">
+        <v>3.16</v>
+      </c>
+      <c r="P3" s="14">
+        <v>109.17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" s="14">
+        <v>88</v>
+      </c>
+      <c r="B4" s="14">
+        <v>2003.38</v>
+      </c>
+      <c r="C4" s="14">
+        <v>4256.88</v>
+      </c>
+      <c r="D4" s="14">
+        <v>1751.72</v>
+      </c>
+      <c r="E4" s="14">
+        <v>2411.34</v>
+      </c>
+      <c r="F4" s="14">
+        <v>10423.32</v>
+      </c>
+      <c r="G4" s="14">
+        <v>44</v>
+      </c>
+      <c r="H4" s="14">
+        <v>592</v>
+      </c>
+      <c r="I4" s="14">
+        <v>824</v>
+      </c>
+      <c r="J4" s="14">
+        <v>52</v>
+      </c>
+      <c r="K4" s="14">
+        <v>1512</v>
+      </c>
+      <c r="L4" s="14">
+        <v>10</v>
+      </c>
+      <c r="M4" s="14">
+        <v>44</v>
+      </c>
+      <c r="N4" s="14">
+        <v>60</v>
+      </c>
+      <c r="O4" s="14">
+        <v>3</v>
+      </c>
+      <c r="P4" s="14">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" s="14">
+        <v>89</v>
+      </c>
+      <c r="B5" s="14">
+        <v>2147.0300000000002</v>
+      </c>
+      <c r="C5" s="14">
+        <v>4569.42</v>
+      </c>
+      <c r="D5" s="14">
+        <v>1682.57</v>
+      </c>
+      <c r="E5" s="14">
+        <v>2207.92</v>
+      </c>
+      <c r="F5" s="14">
+        <v>10606.94</v>
+      </c>
+      <c r="G5" s="14">
+        <v>113</v>
+      </c>
+      <c r="H5" s="14">
+        <v>589</v>
+      </c>
+      <c r="I5" s="14">
+        <v>835</v>
+      </c>
+      <c r="J5" s="14">
+        <v>47</v>
+      </c>
+      <c r="K5" s="14">
+        <v>1584</v>
+      </c>
+      <c r="L5" s="14">
+        <v>10</v>
+      </c>
+      <c r="M5" s="14">
+        <v>45</v>
+      </c>
+      <c r="N5" s="14">
+        <v>61</v>
+      </c>
+      <c r="O5" s="14">
+        <v>3</v>
+      </c>
+      <c r="P5" s="14">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" s="14">
+        <v>90</v>
+      </c>
+      <c r="B6" s="14">
+        <v>2186.77</v>
+      </c>
+      <c r="C6" s="14">
+        <v>5122.17</v>
+      </c>
+      <c r="D6" s="14">
+        <v>1767.28</v>
+      </c>
+      <c r="E6" s="14">
+        <v>2403.04</v>
+      </c>
+      <c r="F6" s="14">
+        <v>11479.26</v>
+      </c>
+      <c r="G6" s="14">
+        <v>87.53</v>
+      </c>
+      <c r="H6" s="14">
+        <v>556.6</v>
+      </c>
+      <c r="I6" s="14">
+        <v>746.75</v>
+      </c>
+      <c r="J6" s="14">
+        <v>27.84</v>
+      </c>
+      <c r="K6" s="14">
+        <v>1418.72</v>
+      </c>
+      <c r="L6" s="14">
+        <v>9.26</v>
+      </c>
+      <c r="M6" s="14">
+        <v>45.11</v>
+      </c>
+      <c r="N6" s="14">
+        <v>56.58</v>
+      </c>
+      <c r="O6" s="14">
+        <v>2.84</v>
+      </c>
+      <c r="P6" s="14">
+        <v>113.79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" s="14">
+        <v>91</v>
+      </c>
+      <c r="B7" s="14">
+        <v>2098.81</v>
+      </c>
+      <c r="C7" s="14">
+        <v>5407.07</v>
+      </c>
+      <c r="D7" s="14">
+        <v>1884.6</v>
+      </c>
+      <c r="E7" s="14">
+        <v>2373.6999999999998</v>
+      </c>
+      <c r="F7" s="14">
+        <v>11764.18</v>
+      </c>
+      <c r="G7" s="14">
+        <v>71.56</v>
+      </c>
+      <c r="H7" s="14">
+        <v>540.08000000000004</v>
+      </c>
+      <c r="I7" s="14">
+        <v>830.26</v>
+      </c>
+      <c r="J7" s="14">
+        <v>94.55</v>
+      </c>
+      <c r="K7" s="14">
+        <v>1536.45</v>
+      </c>
+      <c r="L7" s="14">
+        <v>8.81</v>
+      </c>
+      <c r="M7" s="14">
+        <v>43.83</v>
+      </c>
+      <c r="N7" s="14">
+        <v>54.69</v>
+      </c>
+      <c r="O7" s="14">
+        <v>2.8</v>
+      </c>
+      <c r="P7" s="14">
+        <v>110.13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" s="14">
+        <v>92</v>
+      </c>
+      <c r="B8" s="14">
+        <v>2225.58</v>
+      </c>
+      <c r="C8" s="14">
+        <v>4824.05</v>
+      </c>
+      <c r="D8" s="14">
+        <v>1589.87</v>
+      </c>
+      <c r="E8" s="14">
+        <v>2141.0300000000002</v>
+      </c>
+      <c r="F8" s="14">
+        <v>10780.53</v>
+      </c>
+      <c r="G8" s="14">
+        <v>89.46</v>
+      </c>
+      <c r="H8" s="14">
+        <v>534.80999999999995</v>
+      </c>
+      <c r="I8" s="14">
+        <v>850.71</v>
+      </c>
+      <c r="J8" s="14">
+        <v>70.180000000000007</v>
+      </c>
+      <c r="K8" s="14">
+        <v>1545.16</v>
+      </c>
+      <c r="L8" s="14">
+        <v>8.74</v>
+      </c>
+      <c r="M8" s="14">
+        <v>43.52</v>
+      </c>
+      <c r="N8" s="14">
+        <v>53.72</v>
+      </c>
+      <c r="O8" s="14">
+        <v>2.75</v>
+      </c>
+      <c r="P8" s="14">
+        <v>108.73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" s="14">
+        <v>93</v>
+      </c>
+      <c r="B9" s="14">
+        <v>1897.41</v>
+      </c>
+      <c r="C9" s="14">
+        <v>5194.92</v>
+      </c>
+      <c r="D9" s="14">
+        <v>1579.44</v>
+      </c>
+      <c r="E9" s="14">
+        <v>2122.9899999999998</v>
+      </c>
+      <c r="F9" s="14">
+        <v>10794.76</v>
+      </c>
+      <c r="G9" s="14">
+        <v>98.06</v>
+      </c>
+      <c r="H9" s="14">
+        <v>586.87</v>
+      </c>
+      <c r="I9" s="14">
+        <v>928.27</v>
+      </c>
+      <c r="J9" s="14">
+        <v>88.06</v>
+      </c>
+      <c r="K9" s="14">
+        <v>1701.26</v>
+      </c>
+      <c r="L9" s="14">
+        <v>8.6199999999999992</v>
+      </c>
+      <c r="M9" s="14">
+        <v>43.77</v>
+      </c>
+      <c r="N9" s="14">
+        <v>52.8</v>
+      </c>
+      <c r="O9" s="14">
+        <v>2.57</v>
+      </c>
+      <c r="P9" s="14">
+        <v>107.76</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10" s="14">
+        <v>94</v>
+      </c>
+      <c r="B10" s="14">
+        <v>2403.92</v>
+      </c>
+      <c r="C10" s="14">
+        <v>5455.31</v>
+      </c>
+      <c r="D10" s="14">
+        <v>2015.93</v>
+      </c>
+      <c r="E10" s="14">
+        <v>1162.07</v>
+      </c>
+      <c r="F10" s="14">
+        <v>11037.23</v>
+      </c>
+      <c r="G10" s="14">
+        <v>74.02</v>
+      </c>
+      <c r="H10" s="14">
+        <v>542.41</v>
+      </c>
+      <c r="I10" s="14">
+        <v>926.74</v>
+      </c>
+      <c r="J10" s="14">
+        <v>89.98</v>
+      </c>
+      <c r="K10" s="14">
+        <v>1633.15</v>
+      </c>
+      <c r="L10" s="14">
+        <v>8.91</v>
+      </c>
+      <c r="M10" s="14">
+        <v>44.29</v>
+      </c>
+      <c r="N10" s="14">
+        <v>55.26</v>
+      </c>
+      <c r="O10" s="14">
+        <v>2.69</v>
+      </c>
+      <c r="P10" s="14">
+        <v>111.15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" s="14">
+        <v>95</v>
+      </c>
+      <c r="B11" s="14">
+        <v>2007.03</v>
+      </c>
+      <c r="C11" s="14">
+        <v>5269.41</v>
+      </c>
+      <c r="D11" s="14">
+        <v>2020.05</v>
+      </c>
+      <c r="E11" s="14">
+        <v>1252.74</v>
+      </c>
+      <c r="F11" s="14">
+        <v>10549.23</v>
+      </c>
+      <c r="G11" s="14">
+        <v>76.47</v>
+      </c>
+      <c r="H11" s="14">
+        <v>502.11</v>
+      </c>
+      <c r="I11" s="14">
+        <v>907.79</v>
+      </c>
+      <c r="J11" s="14">
+        <v>91.52</v>
+      </c>
+      <c r="K11" s="14">
+        <v>1577.89</v>
+      </c>
+      <c r="L11" s="14">
+        <v>8.5500000000000007</v>
+      </c>
+      <c r="M11" s="14">
+        <v>45.34</v>
+      </c>
+      <c r="N11" s="14">
+        <v>54.58</v>
+      </c>
+      <c r="O11" s="14">
+        <v>2.63</v>
+      </c>
+      <c r="P11" s="14">
+        <v>111.1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12" s="14">
+        <v>96</v>
+      </c>
+      <c r="B12" s="14">
+        <v>2205.15</v>
+      </c>
+      <c r="C12" s="14">
+        <v>5691.08</v>
+      </c>
+      <c r="D12" s="14">
+        <v>1967.47</v>
+      </c>
+      <c r="E12" s="14">
+        <v>1802.79</v>
+      </c>
+      <c r="F12" s="14">
+        <v>11666.49</v>
+      </c>
+      <c r="G12" s="14">
+        <v>79.17</v>
+      </c>
+      <c r="H12" s="14">
+        <v>530.15</v>
+      </c>
+      <c r="I12" s="14">
+        <v>895.57</v>
+      </c>
+      <c r="J12" s="14">
+        <v>82.83</v>
+      </c>
+      <c r="K12" s="14">
+        <v>1587.72</v>
+      </c>
+      <c r="L12" s="14">
+        <v>8.0299999999999994</v>
+      </c>
+      <c r="M12" s="14">
+        <v>42.75</v>
+      </c>
+      <c r="N12" s="14">
+        <v>51.81</v>
+      </c>
+      <c r="O12" s="14">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="P12" s="14">
+        <v>104.83</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13" s="14">
+        <v>97</v>
+      </c>
+      <c r="B13" s="14">
+        <v>2100.89</v>
+      </c>
+      <c r="C13" s="14">
+        <v>5768.43</v>
+      </c>
+      <c r="D13" s="14">
+        <v>2006.19</v>
+      </c>
+      <c r="E13" s="14">
+        <v>1336.67</v>
+      </c>
+      <c r="F13" s="14">
+        <v>11212.18</v>
+      </c>
+      <c r="G13" s="14">
+        <v>76.34</v>
+      </c>
+      <c r="H13" s="14">
+        <v>533.82000000000005</v>
+      </c>
+      <c r="I13" s="14">
+        <v>931.06</v>
+      </c>
+      <c r="J13" s="14">
+        <v>105.55</v>
+      </c>
+      <c r="K13" s="14">
+        <v>1646.77</v>
+      </c>
+      <c r="L13" s="14">
+        <v>7.61</v>
+      </c>
+      <c r="M13" s="14">
+        <v>41.89</v>
+      </c>
+      <c r="N13" s="14">
+        <v>49.47</v>
+      </c>
+      <c r="O13" s="14">
+        <v>2.19</v>
+      </c>
+      <c r="P13" s="14">
+        <v>101.16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14" s="14">
+        <v>98</v>
+      </c>
+      <c r="B14" s="14">
+        <v>2068.77</v>
+      </c>
+      <c r="C14" s="14">
+        <v>5088.8900000000003</v>
+      </c>
+      <c r="D14" s="14">
+        <v>2398.0300000000002</v>
+      </c>
+      <c r="E14" s="14">
+        <v>2226.04</v>
+      </c>
+      <c r="F14" s="14">
+        <v>11781.73</v>
+      </c>
+      <c r="G14" s="14">
+        <v>53.63</v>
+      </c>
+      <c r="H14" s="14">
+        <v>425.78</v>
+      </c>
+      <c r="I14" s="14">
+        <v>732.35</v>
+      </c>
+      <c r="J14" s="14">
+        <v>103.37</v>
+      </c>
+      <c r="K14" s="14">
+        <v>1315.13</v>
+      </c>
+      <c r="L14" s="14">
+        <v>5.56</v>
+      </c>
+      <c r="M14" s="14">
+        <v>31.18</v>
+      </c>
+      <c r="N14" s="14">
+        <v>34.85</v>
+      </c>
+      <c r="O14" s="14">
+        <v>1.79</v>
+      </c>
+      <c r="P14" s="14">
+        <v>73.38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15" s="14">
+        <v>99</v>
+      </c>
+      <c r="B15" s="14">
+        <v>2005.36</v>
+      </c>
+      <c r="C15" s="14">
+        <v>5184.55</v>
+      </c>
+      <c r="D15" s="14">
+        <v>1870.94</v>
+      </c>
+      <c r="E15" s="14">
+        <v>2027.64</v>
+      </c>
+      <c r="F15" s="14">
+        <v>11088.49</v>
+      </c>
+      <c r="G15" s="14">
+        <v>23.25</v>
+      </c>
+      <c r="H15" s="14">
+        <v>297.48</v>
+      </c>
+      <c r="I15" s="14">
+        <v>679.73</v>
+      </c>
+      <c r="J15" s="14">
+        <v>42.4</v>
+      </c>
+      <c r="K15" s="14">
+        <v>1042.8599999999999</v>
+      </c>
+      <c r="L15" s="14">
+        <v>5.33</v>
+      </c>
+      <c r="M15" s="14">
+        <v>31.3</v>
+      </c>
+      <c r="N15" s="14">
+        <v>35.44</v>
+      </c>
+      <c r="O15" s="14">
+        <v>1.76</v>
+      </c>
+      <c r="P15" s="14">
+        <v>73.83</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16" s="14">
+        <v>100</v>
+      </c>
+      <c r="B16" s="14">
+        <v>2038.59</v>
+      </c>
+      <c r="C16" s="14">
+        <v>4858.93</v>
+      </c>
+      <c r="D16" s="14">
+        <v>2059.89</v>
+      </c>
+      <c r="E16" s="14">
+        <v>2352.9</v>
+      </c>
+      <c r="F16" s="14">
+        <v>11310.31</v>
+      </c>
+      <c r="G16" s="14">
+        <v>19.309999999999999</v>
+      </c>
+      <c r="H16" s="14">
+        <v>283.86</v>
+      </c>
+      <c r="I16" s="14">
+        <v>709.56</v>
+      </c>
+      <c r="J16" s="14">
+        <v>37.08</v>
+      </c>
+      <c r="K16" s="14">
+        <v>1049.81</v>
+      </c>
+      <c r="L16" s="14">
+        <v>5.25</v>
+      </c>
+      <c r="M16" s="14">
+        <v>31.78</v>
+      </c>
+      <c r="N16" s="14">
+        <v>36.21</v>
+      </c>
+      <c r="O16" s="14">
+        <v>1.75</v>
+      </c>
+      <c r="P16" s="14">
+        <v>74.989999999999995</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17" s="14">
+        <v>101</v>
+      </c>
+      <c r="B17" s="14">
+        <v>1982.25</v>
+      </c>
+      <c r="C17" s="14">
+        <v>5067.43</v>
+      </c>
+      <c r="D17" s="14">
+        <v>1992.58</v>
+      </c>
+      <c r="E17" s="14">
+        <v>2360.42</v>
+      </c>
+      <c r="F17" s="14">
+        <v>11402.68</v>
+      </c>
+      <c r="G17" s="14">
+        <v>35.15</v>
+      </c>
+      <c r="H17" s="14">
+        <v>287.69</v>
+      </c>
+      <c r="I17" s="14">
+        <v>672.52</v>
+      </c>
+      <c r="J17" s="14">
+        <v>43.3</v>
+      </c>
+      <c r="K17" s="14">
+        <v>1038.6600000000001</v>
+      </c>
+      <c r="L17" s="14">
+        <v>5.3</v>
+      </c>
+      <c r="M17" s="14">
+        <v>30.18</v>
+      </c>
+      <c r="N17" s="14">
+        <v>35.22</v>
+      </c>
+      <c r="O17" s="14">
+        <v>1.73</v>
+      </c>
+      <c r="P17" s="14">
+        <v>72.430000000000007</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18" s="14">
+        <v>102</v>
+      </c>
+      <c r="B18" s="14">
+        <v>1961.41</v>
+      </c>
+      <c r="C18" s="14">
+        <v>5210.9399999999996</v>
+      </c>
+      <c r="D18" s="14">
+        <v>2125.6799999999998</v>
+      </c>
+      <c r="E18" s="14">
+        <v>2086.0300000000002</v>
+      </c>
+      <c r="F18" s="14">
+        <v>11384.06</v>
+      </c>
+      <c r="G18" s="14">
+        <v>22.33</v>
+      </c>
+      <c r="H18" s="14">
+        <v>270.67</v>
+      </c>
+      <c r="I18" s="14">
+        <v>665.59</v>
+      </c>
+      <c r="J18" s="14">
+        <v>54.69</v>
+      </c>
+      <c r="K18" s="14">
+        <v>1013.28</v>
+      </c>
+      <c r="L18" s="14">
+        <v>5.13</v>
+      </c>
+      <c r="M18" s="14">
+        <v>29.87</v>
+      </c>
+      <c r="N18" s="14">
+        <v>33.869999999999997</v>
+      </c>
+      <c r="O18" s="14">
+        <v>1.6</v>
+      </c>
+      <c r="P18" s="14">
+        <v>70.47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19" s="14">
+        <v>103</v>
+      </c>
+      <c r="B19" s="14">
+        <v>2260.69</v>
+      </c>
+      <c r="C19" s="14">
+        <v>5643.66</v>
+      </c>
+      <c r="D19" s="14">
+        <v>1911.51</v>
+      </c>
+      <c r="E19" s="14">
+        <v>2181.0300000000002</v>
+      </c>
+      <c r="F19" s="14">
+        <v>11996.89</v>
+      </c>
+      <c r="G19" s="14">
+        <v>32.08</v>
+      </c>
+      <c r="H19" s="14">
+        <v>262.2</v>
+      </c>
+      <c r="I19" s="14">
+        <v>631.63</v>
+      </c>
+      <c r="J19" s="14">
+        <v>46.46</v>
+      </c>
+      <c r="K19" s="14">
+        <v>972.37</v>
+      </c>
+      <c r="L19" s="14">
+        <v>3.98</v>
+      </c>
+      <c r="M19" s="14">
+        <v>29.34</v>
+      </c>
+      <c r="N19" s="14">
+        <v>31.85</v>
+      </c>
+      <c r="O19" s="14">
+        <v>1.59</v>
+      </c>
+      <c r="P19" s="14">
+        <v>66.760000000000005</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
+      <c r="A20" s="14">
+        <v>104</v>
+      </c>
+      <c r="B20" s="14">
+        <v>1662.09</v>
+      </c>
+      <c r="C20" s="14">
+        <v>5044.29</v>
+      </c>
+      <c r="D20" s="14">
+        <v>1789.45</v>
+      </c>
+      <c r="E20" s="14">
+        <v>2361.61</v>
+      </c>
+      <c r="F20" s="14">
+        <v>10857.44</v>
+      </c>
+      <c r="G20" s="14">
+        <v>18.5</v>
+      </c>
+      <c r="H20" s="14">
+        <v>200</v>
+      </c>
+      <c r="I20" s="14">
+        <v>612.02</v>
+      </c>
+      <c r="J20" s="14">
+        <v>49.57</v>
+      </c>
+      <c r="K20" s="14">
+        <v>880.09</v>
+      </c>
+      <c r="L20" s="14">
+        <v>3.88</v>
+      </c>
+      <c r="M20" s="14">
+        <v>29.67</v>
+      </c>
+      <c r="N20" s="14">
+        <v>31.4</v>
+      </c>
+      <c r="O20" s="14">
+        <v>1.57</v>
+      </c>
+      <c r="P20" s="14">
+        <v>66.52</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
+      <c r="A21" s="14">
+        <v>105</v>
+      </c>
+      <c r="B21" s="14">
+        <v>1899.15</v>
+      </c>
+      <c r="C21" s="14">
+        <v>4621.25</v>
+      </c>
+      <c r="D21" s="14">
+        <v>1829.26</v>
+      </c>
+      <c r="E21" s="14">
+        <v>2442.2399999999998</v>
+      </c>
+      <c r="F21" s="14">
+        <v>10791.9</v>
+      </c>
+      <c r="G21" s="14">
+        <v>21.3</v>
+      </c>
+      <c r="H21" s="14">
+        <v>203.39</v>
+      </c>
+      <c r="I21" s="14">
+        <v>602.16</v>
+      </c>
+      <c r="J21" s="14">
+        <v>49.14</v>
+      </c>
+      <c r="K21" s="14">
+        <v>875.99</v>
+      </c>
+      <c r="L21" s="14">
+        <v>3.65</v>
+      </c>
+      <c r="M21" s="14">
+        <v>29.42</v>
+      </c>
+      <c r="N21" s="14">
+        <v>31.15</v>
+      </c>
+      <c r="O21" s="14">
+        <v>1.52</v>
+      </c>
+      <c r="P21" s="14">
+        <v>65.739999999999995</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
+      <c r="A23" s="15">
+        <v>87</v>
+      </c>
+      <c r="B23" s="15">
+        <v>10682.42</v>
+      </c>
+      <c r="C23" s="15">
+        <v>1463.21</v>
+      </c>
+      <c r="D23" s="15">
+        <v>109.17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
+      <c r="A24" s="15">
+        <v>88</v>
+      </c>
+      <c r="B24" s="15">
+        <v>10423.32</v>
+      </c>
+      <c r="C24" s="15">
+        <v>1512</v>
+      </c>
+      <c r="D24" s="15">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
+      <c r="A25" s="15">
+        <v>89</v>
+      </c>
+      <c r="B25" s="15">
+        <v>10606.94</v>
+      </c>
+      <c r="C25" s="15">
+        <v>1584</v>
+      </c>
+      <c r="D25" s="15">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16">
+      <c r="A26" s="15">
+        <v>90</v>
+      </c>
+      <c r="B26" s="15">
+        <v>11479.26</v>
+      </c>
+      <c r="C26" s="15">
+        <v>1418.72</v>
+      </c>
+      <c r="D26" s="15">
+        <v>113.79</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16">
+      <c r="A27" s="15">
+        <v>91</v>
+      </c>
+      <c r="B27" s="15">
+        <v>11764.18</v>
+      </c>
+      <c r="C27" s="15">
+        <v>1536.45</v>
+      </c>
+      <c r="D27" s="15">
+        <v>110.13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16">
+      <c r="A28" s="15">
+        <v>92</v>
+      </c>
+      <c r="B28" s="15">
+        <v>10780.53</v>
+      </c>
+      <c r="C28" s="15">
+        <v>1545.16</v>
+      </c>
+      <c r="D28" s="15">
+        <v>108.73</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16">
+      <c r="A29" s="15">
+        <v>93</v>
+      </c>
+      <c r="B29" s="15">
+        <v>10794.76</v>
+      </c>
+      <c r="C29" s="15">
+        <v>1701.26</v>
+      </c>
+      <c r="D29" s="15">
+        <v>107.76</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16">
+      <c r="A30" s="15">
+        <v>94</v>
+      </c>
+      <c r="B30" s="15">
+        <v>11037.23</v>
+      </c>
+      <c r="C30" s="15">
+        <v>1633.15</v>
+      </c>
+      <c r="D30" s="15">
+        <v>111.15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16">
+      <c r="A31" s="15">
+        <v>95</v>
+      </c>
+      <c r="B31" s="15">
+        <v>10549.23</v>
+      </c>
+      <c r="C31" s="15">
+        <v>1577.89</v>
+      </c>
+      <c r="D31" s="15">
+        <v>111.1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16">
+      <c r="A32" s="15">
+        <v>96</v>
+      </c>
+      <c r="B32" s="15">
+        <v>11666.49</v>
+      </c>
+      <c r="C32" s="15">
+        <v>1587.72</v>
+      </c>
+      <c r="D32" s="15">
+        <v>104.83</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="15">
+        <v>97</v>
+      </c>
+      <c r="B33" s="15">
+        <v>11212.18</v>
+      </c>
+      <c r="C33" s="15">
+        <v>1646.77</v>
+      </c>
+      <c r="D33" s="15">
+        <v>101.16</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="15">
+        <v>98</v>
+      </c>
+      <c r="B34" s="15">
+        <v>11781.73</v>
+      </c>
+      <c r="C34" s="15">
+        <v>1315.13</v>
+      </c>
+      <c r="D34" s="15">
+        <v>73.38</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="15">
+        <v>99</v>
+      </c>
+      <c r="B35" s="15">
+        <v>11088.49</v>
+      </c>
+      <c r="C35" s="15">
+        <v>1042.8599999999999</v>
+      </c>
+      <c r="D35" s="15">
+        <v>73.83</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="15">
+        <v>100</v>
+      </c>
+      <c r="B36" s="15">
+        <v>11310.31</v>
+      </c>
+      <c r="C36" s="15">
+        <v>1049.81</v>
+      </c>
+      <c r="D36" s="15">
+        <v>74.989999999999995</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="15">
+        <v>101</v>
+      </c>
+      <c r="B37" s="15">
+        <v>11402.68</v>
+      </c>
+      <c r="C37" s="15">
+        <v>1038.6600000000001</v>
+      </c>
+      <c r="D37" s="15">
+        <v>72.430000000000007</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="15">
+        <v>102</v>
+      </c>
+      <c r="B38" s="15">
+        <v>11384.06</v>
+      </c>
+      <c r="C38" s="15">
+        <v>1013.28</v>
+      </c>
+      <c r="D38" s="15">
+        <v>70.47</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="15">
+        <v>103</v>
+      </c>
+      <c r="B39" s="15">
+        <v>11996.89</v>
+      </c>
+      <c r="C39" s="15">
+        <v>972.37</v>
+      </c>
+      <c r="D39" s="15">
+        <v>66.760000000000005</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="15">
+        <v>104</v>
+      </c>
+      <c r="B40" s="15">
+        <v>10857.44</v>
+      </c>
+      <c r="C40" s="15">
+        <v>880.09</v>
+      </c>
+      <c r="D40" s="15">
+        <v>66.52</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="15">
+        <v>105</v>
+      </c>
+      <c r="B41" s="15">
+        <v>10791.9</v>
+      </c>
+      <c r="C41" s="15">
+        <v>875.99</v>
+      </c>
+      <c r="D41" s="15">
         <v>65.739999999999995</v>
       </c>
     </row>
